--- a/tests/012_pandapower_speed_test_hold_pv/connections.xlsx
+++ b/tests/012_pandapower_speed_test_hold_pv/connections.xlsx
@@ -46,7 +46,7 @@
     <t>pandapower</t>
   </si>
   <si>
-    <t>pv_inverter/CyDER_Simulation_Model_Pv_0Inv_0VoltVarWatt_0simple_0Slim_0zerohold.fmu</t>
+    <t>pv_inverter/CyDER_Simulation_Model_Pv_0Inv_0VoltVarWatt_0simple_0Slim_0zerohold_0onlyPv.fmu</t>
   </si>
   <si>
     <t>pandapower/pandapower.fmu</t>

--- a/tests/012_pandapower_speed_test_hold_pv/connections.xlsx
+++ b/tests/012_pandapower_speed_test_hold_pv/connections.xlsx
@@ -52,7 +52,7 @@
     <t>pandapower/pandapower.fmu</t>
   </si>
   <si>
-    <t>{'hysP': 0.06, 'A': 12658.227848101265, 'weather_file': 'C:\\Users\\DRRC\\Desktop\\fmi-for-power-system\\tests\\012_pandapower_speed_test_hold_pv\\pv_inverter\\USA_CA_San.Francisco.Intl.AP.724940_TMY3.mos', 'thrQ': 0.03, 'SMax': 2100.0, 'azi': 0, 'QMaxCap': 924.0, 'thrP': 0.04, 'til': 10, 'QMaxInd': 924.0, 'Ts': 300, 'lat': 37.9, 'eta': 0.158, 'n': 1, 'hysQ': 0.03}</t>
+    <t>{'SMax': 2100.0, 'Ts': 300, 'hysQ': 0.03, 'A': 12658.227848101265, 'QMaxInd': 924.0, 'thrQ': 0.03, 'QMaxCap': 924.0, 'thrP': 0.04, 'lat': 37.9, 'weather_file': 'C:\\Users\\DRRC\\Desktop\\fmi-for-power-system\\tests\\012_pandapower_speed_test_hold_pv\\pv_inverter\\USA_CA_San.Francisco.Intl.AP.724940_TMY3.mos', 'n': 1, 'til': 10, 'eta': 0.158, 'azi': 0, 'hysP': 0.06}</t>
   </si>
   <si>
     <t>{'Tfirstorder': 1}</t>

--- a/tests/012_pandapower_speed_test_hold_pv/connections.xlsx
+++ b/tests/012_pandapower_speed_test_hold_pv/connections.xlsx
@@ -55,7 +55,7 @@
     <t>{'SMax': 2100.0, 'Ts': 300, 'hysQ': 0.03, 'A': 12658.227848101265, 'QMaxInd': 924.0, 'thrQ': 0.03, 'QMaxCap': 924.0, 'thrP': 0.04, 'lat': 37.9, 'weather_file': 'C:\\Users\\DRRC\\Desktop\\fmi-for-power-system\\tests\\012_pandapower_speed_test_hold_pv\\pv_inverter\\USA_CA_San.Francisco.Intl.AP.724940_TMY3.mos', 'n': 1, 'til': 10, 'eta': 0.158, 'azi': 0, 'hysP': 0.06}</t>
   </si>
   <si>
-    <t>{'Tfirstorder': 1}</t>
+    <t>{'Tfirstorder': 120}</t>
   </si>
   <si>
     <t>P</t>
